--- a/doc/ue_SceneCapture2D.xlsx
+++ b/doc/ue_SceneCapture2D.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C55D53-E3BC-46A4-BF44-1D92F827D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175CEE4-E817-40DD-A800-4D9269B743B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="配置" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>USceneCaptureComponent2D</t>
   </si>
@@ -173,6 +174,31 @@
   </si>
   <si>
     <t>void USceneCaptureComponent::UpdateDeferredCaptures(FSceneInterface* Scene)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// TODO: Make this a UStruct to set directly?</t>
+  </si>
+  <si>
+    <t>/** Settings stored here read from the strings and int values in the ShowFlagSettings array */</t>
+  </si>
+  <si>
+    <t>FEngineShowFlags ShowFlags;</t>
+  </si>
+  <si>
+    <t>// -&gt; will be exported to EngineDecalClasses.h</t>
+  </si>
+  <si>
+    <t>UCLASS(abstract, hidecategories=(Collision, Object, Physics, SceneComponent, Mobility))</t>
+  </si>
+  <si>
+    <t>class ENGINE_API USceneCaptureComponent : public USceneComponent</t>
+  </si>
+  <si>
+    <t>const bool bDynamicShadows = ViewFamily.EngineShowFlags.DynamicShadows;</t>
+  </si>
+  <si>
+    <t>阴影，灯光等一系列开关，可以在对应的构造里面设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -788,4 +814,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FED552-D131-448B-ACEF-1B47E9E6C345}">
+  <dimension ref="B8:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>